--- a/q1_result.xlsx
+++ b/q1_result.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\数学建模\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62561DF-D357-49AD-A87E-B69BFBE60889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6853C5B9-1C73-49B1-9D1A-95C4346838D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="495" windowWidth="19305" windowHeight="20145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,7 +388,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,32 +489,33 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.35695442597272431</v>
+        <v>35.695442597272397</v>
       </c>
       <c r="C4">
-        <v>0.31510571997094722</v>
+        <v>31.510571997094701</v>
       </c>
       <c r="D4">
-        <v>0.26743092176155409</v>
+        <v>26.7430921761554</v>
       </c>
       <c r="E4">
-        <v>0.2126223605422298</v>
+        <v>21.262236054222999</v>
       </c>
       <c r="F4">
-        <v>0.14894937506831979</v>
+        <v>14.894937506831999</v>
       </c>
       <c r="G4">
-        <v>7.4072235919722673E-2</v>
+        <v>7.4072235919722704</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-1.52516372896803</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-12.364966115077101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>